--- a/datasets/anderson_data.xlsx
+++ b/datasets/anderson_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattanderson/Documents/GitHub/selfKnowledge/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41678EC3-7EF5-5D4B-B829-3402587D4A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ADD976-1F50-D547-BB47-37116B620A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{01DF34F6-E9F6-7748-A66B-69E9C846D3D2}"/>
   </bookViews>
@@ -437,8 +437,8 @@
   <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
